--- a/data/cleaned_data/2016_TX.xlsx
+++ b/data/cleaned_data/2016_TX.xlsx
@@ -2166,7 +2166,7 @@
         <v>262</v>
       </c>
       <c r="D2">
-        <v>286</v>
+        <v>464</v>
       </c>
       <c r="E2" t="s">
         <v>309</v>
@@ -2192,7 +2192,7 @@
         <v>263</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
         <v>310</v>
@@ -2218,7 +2218,7 @@
         <v>264</v>
       </c>
       <c r="D4">
-        <v>462</v>
+        <v>803</v>
       </c>
       <c r="E4" t="s">
         <v>311</v>
@@ -2244,7 +2244,7 @@
         <v>265</v>
       </c>
       <c r="D5">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
         <v>312</v>
@@ -2270,7 +2270,7 @@
         <v>265</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
         <v>313</v>
@@ -2296,7 +2296,7 @@
         <v>263</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
         <v>314</v>
@@ -2322,7 +2322,7 @@
         <v>266</v>
       </c>
       <c r="D8">
-        <v>216</v>
+        <v>322</v>
       </c>
       <c r="E8" t="s">
         <v>315</v>
@@ -2348,7 +2348,7 @@
         <v>267</v>
       </c>
       <c r="D9">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="E9" t="s">
         <v>316</v>
@@ -2374,7 +2374,7 @@
         <v>268</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
         <v>317</v>
@@ -2394,7 +2394,7 @@
         <v>268</v>
       </c>
       <c r="D11">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="E11" t="s">
         <v>318</v>
@@ -2420,7 +2420,7 @@
         <v>269</v>
       </c>
       <c r="D12">
-        <v>470</v>
+        <v>786</v>
       </c>
       <c r="E12" t="s">
         <v>319</v>
@@ -2446,7 +2446,7 @@
         <v>270</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
         <v>320</v>
@@ -2466,7 +2466,7 @@
         <v>271</v>
       </c>
       <c r="D14">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="E14" t="s">
         <v>321</v>
@@ -2492,7 +2492,7 @@
         <v>272</v>
       </c>
       <c r="D15">
-        <v>1675</v>
+        <v>2666</v>
       </c>
       <c r="E15" t="s">
         <v>322</v>
@@ -2518,7 +2518,7 @@
         <v>273</v>
       </c>
       <c r="D16">
-        <v>18922</v>
+        <v>24759</v>
       </c>
       <c r="E16" t="s">
         <v>323</v>
@@ -2544,7 +2544,7 @@
         <v>271</v>
       </c>
       <c r="D17">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="E17" t="s">
         <v>324</v>
@@ -2564,7 +2564,7 @@
         <v>263</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
         <v>325</v>
@@ -2584,7 +2584,7 @@
         <v>268</v>
       </c>
       <c r="D19">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
         <v>326</v>
@@ -2604,7 +2604,7 @@
         <v>274</v>
       </c>
       <c r="D20">
-        <v>847</v>
+        <v>1219</v>
       </c>
       <c r="E20" t="s">
         <v>327</v>
@@ -2630,7 +2630,7 @@
         <v>275</v>
       </c>
       <c r="D21">
-        <v>1494</v>
+        <v>2239</v>
       </c>
       <c r="E21" t="s">
         <v>328</v>
@@ -2656,7 +2656,7 @@
         <v>264</v>
       </c>
       <c r="D22">
-        <v>1184</v>
+        <v>2108</v>
       </c>
       <c r="E22" t="s">
         <v>329</v>
@@ -2682,7 +2682,7 @@
         <v>270</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
         <v>330</v>
@@ -2702,7 +2702,7 @@
         <v>268</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E24" t="s">
         <v>295</v>
@@ -2722,7 +2722,7 @@
         <v>263</v>
       </c>
       <c r="D25">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
         <v>331</v>
@@ -2742,7 +2742,7 @@
         <v>276</v>
       </c>
       <c r="D26">
-        <v>290</v>
+        <v>394</v>
       </c>
       <c r="E26" t="s">
         <v>332</v>
@@ -2768,7 +2768,7 @@
         <v>277</v>
       </c>
       <c r="D27">
-        <v>117</v>
+        <v>185</v>
       </c>
       <c r="E27" t="s">
         <v>333</v>
@@ -2794,7 +2794,7 @@
         <v>278</v>
       </c>
       <c r="D28">
-        <v>174</v>
+        <v>384</v>
       </c>
       <c r="E28" t="s">
         <v>334</v>
@@ -2814,7 +2814,7 @@
         <v>278</v>
       </c>
       <c r="D29">
-        <v>299</v>
+        <v>430</v>
       </c>
       <c r="E29" t="s">
         <v>335</v>
@@ -2840,7 +2840,7 @@
         <v>263</v>
       </c>
       <c r="D30">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="E30" t="s">
         <v>336</v>
@@ -2866,7 +2866,7 @@
         <v>279</v>
       </c>
       <c r="D31">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="E31" t="s">
         <v>337</v>
@@ -2892,7 +2892,7 @@
         <v>280</v>
       </c>
       <c r="D32">
-        <v>3133</v>
+        <v>3934</v>
       </c>
       <c r="E32" t="s">
         <v>338</v>
@@ -2918,7 +2918,7 @@
         <v>263</v>
       </c>
       <c r="D33">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="E33" t="s">
         <v>339</v>
@@ -2944,7 +2944,7 @@
         <v>266</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E34" t="s">
         <v>340</v>
@@ -2970,7 +2970,7 @@
         <v>281</v>
       </c>
       <c r="D35">
-        <v>129</v>
+        <v>251</v>
       </c>
       <c r="E35" t="s">
         <v>341</v>
@@ -2990,7 +2990,7 @@
         <v>270</v>
       </c>
       <c r="D36">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E36" t="s">
         <v>342</v>
@@ -3010,7 +3010,7 @@
         <v>274</v>
       </c>
       <c r="D37">
-        <v>292</v>
+        <v>476</v>
       </c>
       <c r="E37" t="s">
         <v>343</v>
@@ -3036,7 +3036,7 @@
         <v>278</v>
       </c>
       <c r="D38">
-        <v>264</v>
+        <v>403</v>
       </c>
       <c r="E38" t="s">
         <v>344</v>
@@ -3062,7 +3062,7 @@
         <v>268</v>
       </c>
       <c r="D39">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E39" t="s">
         <v>289</v>
@@ -3082,7 +3082,7 @@
         <v>270</v>
       </c>
       <c r="D40">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="E40" t="s">
         <v>345</v>
@@ -3108,7 +3108,7 @@
         <v>263</v>
       </c>
       <c r="D41">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E41" t="s">
         <v>274</v>
@@ -3128,7 +3128,7 @@
         <v>281</v>
       </c>
       <c r="D42">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E42" t="s">
         <v>295</v>
@@ -3148,7 +3148,7 @@
         <v>266</v>
       </c>
       <c r="D43">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E43" t="s">
         <v>346</v>
@@ -3168,7 +3168,7 @@
         <v>282</v>
       </c>
       <c r="D44">
-        <v>4151</v>
+        <v>6739</v>
       </c>
       <c r="E44" t="s">
         <v>347</v>
@@ -3194,7 +3194,7 @@
         <v>270</v>
       </c>
       <c r="D45">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
         <v>291</v>
@@ -3214,7 +3214,7 @@
         <v>271</v>
       </c>
       <c r="D46">
-        <v>127</v>
+        <v>212</v>
       </c>
       <c r="E46" t="s">
         <v>348</v>
@@ -3234,7 +3234,7 @@
         <v>283</v>
       </c>
       <c r="D47">
-        <v>727</v>
+        <v>1166</v>
       </c>
       <c r="E47" t="s">
         <v>349</v>
@@ -3260,7 +3260,7 @@
         <v>271</v>
       </c>
       <c r="D48">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="E48" t="s">
         <v>350</v>
@@ -3280,7 +3280,7 @@
         <v>270</v>
       </c>
       <c r="D49">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E49" t="s">
         <v>351</v>
@@ -3300,7 +3300,7 @@
         <v>266</v>
       </c>
       <c r="D50">
-        <v>148</v>
+        <v>259</v>
       </c>
       <c r="E50" t="s">
         <v>352</v>
@@ -3326,7 +3326,7 @@
         <v>284</v>
       </c>
       <c r="D51">
-        <v>244</v>
+        <v>429</v>
       </c>
       <c r="E51" t="s">
         <v>353</v>
@@ -3372,7 +3372,7 @@
         <v>270</v>
       </c>
       <c r="D53">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E53" t="s">
         <v>354</v>
@@ -3392,7 +3392,7 @@
         <v>281</v>
       </c>
       <c r="D54">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="E54" t="s">
         <v>355</v>
@@ -3412,7 +3412,7 @@
         <v>276</v>
       </c>
       <c r="D55">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E55" t="s">
         <v>282</v>
@@ -3438,7 +3438,7 @@
         <v>265</v>
       </c>
       <c r="D56">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="E56" t="s">
         <v>356</v>
@@ -3458,7 +3458,7 @@
         <v>281</v>
       </c>
       <c r="D57">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E57" t="s">
         <v>357</v>
@@ -3478,7 +3478,7 @@
         <v>285</v>
       </c>
       <c r="D58">
-        <v>22956</v>
+        <v>31879</v>
       </c>
       <c r="E58" t="s">
         <v>358</v>
@@ -3504,7 +3504,7 @@
         <v>281</v>
       </c>
       <c r="D59">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="E59" t="s">
         <v>359</v>
@@ -3530,7 +3530,7 @@
         <v>265</v>
       </c>
       <c r="D60">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="E60" t="s">
         <v>360</v>
@@ -3556,7 +3556,7 @@
         <v>266</v>
       </c>
       <c r="D61">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E61" t="s">
         <v>289</v>
@@ -3576,7 +3576,7 @@
         <v>286</v>
       </c>
       <c r="D62">
-        <v>3347</v>
+        <v>5093</v>
       </c>
       <c r="E62" t="s">
         <v>361</v>
@@ -3602,7 +3602,7 @@
         <v>276</v>
       </c>
       <c r="D63">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="E63" t="s">
         <v>362</v>
@@ -3622,7 +3622,7 @@
         <v>263</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E64" t="s">
         <v>283</v>
@@ -3642,7 +3642,7 @@
         <v>268</v>
       </c>
       <c r="D65">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="E65" t="s">
         <v>305</v>
@@ -3662,7 +3662,7 @@
         <v>268</v>
       </c>
       <c r="D66">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E66" t="s">
         <v>363</v>
@@ -3682,7 +3682,7 @@
         <v>281</v>
       </c>
       <c r="D67">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E67" t="s">
         <v>364</v>
@@ -3708,7 +3708,7 @@
         <v>266</v>
       </c>
       <c r="D68">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="E68" t="s">
         <v>365</v>
@@ -3728,7 +3728,7 @@
         <v>287</v>
       </c>
       <c r="D69">
-        <v>742</v>
+        <v>1263</v>
       </c>
       <c r="E69" t="s">
         <v>366</v>
@@ -3754,7 +3754,7 @@
         <v>263</v>
       </c>
       <c r="D70">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
         <v>283</v>
@@ -3774,7 +3774,7 @@
         <v>288</v>
       </c>
       <c r="D71">
-        <v>816</v>
+        <v>1259</v>
       </c>
       <c r="E71" t="s">
         <v>367</v>
@@ -3800,7 +3800,7 @@
         <v>289</v>
       </c>
       <c r="D72">
-        <v>4936</v>
+        <v>7523</v>
       </c>
       <c r="E72" t="s">
         <v>368</v>
@@ -3826,7 +3826,7 @@
         <v>290</v>
       </c>
       <c r="D73">
-        <v>208</v>
+        <v>383</v>
       </c>
       <c r="E73" t="s">
         <v>369</v>
@@ -3852,7 +3852,7 @@
         <v>279</v>
       </c>
       <c r="D74">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="E74" t="s">
         <v>370</v>
@@ -3878,7 +3878,7 @@
         <v>291</v>
       </c>
       <c r="D75">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="E75" t="s">
         <v>371</v>
@@ -3904,7 +3904,7 @@
         <v>278</v>
       </c>
       <c r="D76">
-        <v>145</v>
+        <v>249</v>
       </c>
       <c r="E76" t="s">
         <v>372</v>
@@ -3924,7 +3924,7 @@
         <v>268</v>
       </c>
       <c r="D77">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E77" t="s">
         <v>297</v>
@@ -3944,7 +3944,7 @@
         <v>263</v>
       </c>
       <c r="D78">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E78" t="s">
         <v>363</v>
@@ -3964,7 +3964,7 @@
         <v>263</v>
       </c>
       <c r="D79">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E79" t="s">
         <v>277</v>
@@ -3984,7 +3984,7 @@
         <v>269</v>
       </c>
       <c r="D80">
-        <v>2408</v>
+        <v>3525</v>
       </c>
       <c r="E80" t="s">
         <v>373</v>
@@ -4010,7 +4010,7 @@
         <v>267</v>
       </c>
       <c r="D81">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E81" t="s">
         <v>374</v>
@@ -4030,7 +4030,7 @@
         <v>290</v>
       </c>
       <c r="D82">
-        <v>261</v>
+        <v>376</v>
       </c>
       <c r="E82" t="s">
         <v>375</v>
@@ -4050,7 +4050,7 @@
         <v>265</v>
       </c>
       <c r="D83">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="E83" t="s">
         <v>376</v>
@@ -4076,7 +4076,7 @@
         <v>276</v>
       </c>
       <c r="D84">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="E84" t="s">
         <v>377</v>
@@ -4096,7 +4096,7 @@
         <v>292</v>
       </c>
       <c r="D85">
-        <v>1721</v>
+        <v>2529</v>
       </c>
       <c r="E85" t="s">
         <v>378</v>
@@ -4122,7 +4122,7 @@
         <v>263</v>
       </c>
       <c r="D86">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E86" t="s">
         <v>379</v>
@@ -4142,7 +4142,7 @@
         <v>279</v>
       </c>
       <c r="D87">
-        <v>129</v>
+        <v>223</v>
       </c>
       <c r="E87" t="s">
         <v>380</v>
@@ -4168,7 +4168,7 @@
         <v>268</v>
       </c>
       <c r="D88">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E88" t="s">
         <v>381</v>
@@ -4188,7 +4188,7 @@
         <v>281</v>
       </c>
       <c r="D89">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E89" t="s">
         <v>382</v>
@@ -4214,7 +4214,7 @@
         <v>290</v>
       </c>
       <c r="D90">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="E90" t="s">
         <v>383</v>
@@ -4234,7 +4234,7 @@
         <v>276</v>
       </c>
       <c r="D91">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="E91" t="s">
         <v>384</v>
@@ -4260,7 +4260,7 @@
         <v>283</v>
       </c>
       <c r="D92">
-        <v>564</v>
+        <v>973</v>
       </c>
       <c r="E92" t="s">
         <v>385</v>
@@ -4286,7 +4286,7 @@
         <v>293</v>
       </c>
       <c r="D93">
-        <v>1440</v>
+        <v>1929</v>
       </c>
       <c r="E93" t="s">
         <v>386</v>
@@ -4312,7 +4312,7 @@
         <v>271</v>
       </c>
       <c r="D94">
-        <v>182</v>
+        <v>307</v>
       </c>
       <c r="E94" t="s">
         <v>387</v>
@@ -4332,7 +4332,7 @@
         <v>283</v>
       </c>
       <c r="D95">
-        <v>576</v>
+        <v>898</v>
       </c>
       <c r="E95" t="s">
         <v>388</v>
@@ -4358,7 +4358,7 @@
         <v>265</v>
       </c>
       <c r="D96">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="E96" t="s">
         <v>389</v>
@@ -4384,7 +4384,7 @@
         <v>270</v>
       </c>
       <c r="D97">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E97" t="s">
         <v>282</v>
@@ -4404,7 +4404,7 @@
         <v>270</v>
       </c>
       <c r="D98">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="E98" t="s">
         <v>340</v>
@@ -4424,7 +4424,7 @@
         <v>270</v>
       </c>
       <c r="D99">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E99" t="s">
         <v>293</v>
@@ -4444,7 +4444,7 @@
         <v>268</v>
       </c>
       <c r="D100">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E100" t="s">
         <v>297</v>
@@ -4464,7 +4464,7 @@
         <v>277</v>
       </c>
       <c r="D101">
-        <v>276</v>
+        <v>412</v>
       </c>
       <c r="E101" t="s">
         <v>390</v>
@@ -4490,7 +4490,7 @@
         <v>294</v>
       </c>
       <c r="D102">
-        <v>35410</v>
+        <v>47437</v>
       </c>
       <c r="E102" t="s">
         <v>391</v>
@@ -4516,7 +4516,7 @@
         <v>295</v>
       </c>
       <c r="D103">
-        <v>469</v>
+        <v>702</v>
       </c>
       <c r="E103" t="s">
         <v>392</v>
@@ -4542,7 +4542,7 @@
         <v>276</v>
       </c>
       <c r="D104">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E104" t="s">
         <v>393</v>
@@ -4562,7 +4562,7 @@
         <v>268</v>
       </c>
       <c r="D105">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E105" t="s">
         <v>394</v>
@@ -4582,7 +4582,7 @@
         <v>296</v>
       </c>
       <c r="D106">
-        <v>916</v>
+        <v>1539</v>
       </c>
       <c r="E106" t="s">
         <v>395</v>
@@ -4608,7 +4608,7 @@
         <v>263</v>
       </c>
       <c r="D107">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E107" t="s">
         <v>396</v>
@@ -4628,7 +4628,7 @@
         <v>277</v>
       </c>
       <c r="D108">
-        <v>392</v>
+        <v>611</v>
       </c>
       <c r="E108" t="s">
         <v>397</v>
@@ -4654,7 +4654,7 @@
         <v>297</v>
       </c>
       <c r="D109">
-        <v>8089</v>
+        <v>10297</v>
       </c>
       <c r="E109" t="s">
         <v>398</v>
@@ -4680,7 +4680,7 @@
         <v>290</v>
       </c>
       <c r="D110">
-        <v>200</v>
+        <v>286</v>
       </c>
       <c r="E110" t="s">
         <v>399</v>
@@ -4700,7 +4700,7 @@
         <v>279</v>
       </c>
       <c r="D111">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="E111" t="s">
         <v>400</v>
@@ -4726,7 +4726,7 @@
         <v>291</v>
       </c>
       <c r="D112">
-        <v>265</v>
+        <v>387</v>
       </c>
       <c r="E112" t="s">
         <v>401</v>
@@ -4752,7 +4752,7 @@
         <v>278</v>
       </c>
       <c r="D113">
-        <v>132</v>
+        <v>255</v>
       </c>
       <c r="E113" t="s">
         <v>402</v>
@@ -4778,7 +4778,7 @@
         <v>284</v>
       </c>
       <c r="D114">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="E114" t="s">
         <v>403</v>
@@ -4798,7 +4798,7 @@
         <v>271</v>
       </c>
       <c r="D115">
-        <v>181</v>
+        <v>293</v>
       </c>
       <c r="E115" t="s">
         <v>404</v>
@@ -4824,7 +4824,7 @@
         <v>262</v>
       </c>
       <c r="D116">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="E116" t="s">
         <v>405</v>
@@ -4850,7 +4850,7 @@
         <v>298</v>
       </c>
       <c r="D117">
-        <v>558</v>
+        <v>837</v>
       </c>
       <c r="E117" t="s">
         <v>406</v>
@@ -4876,7 +4876,7 @@
         <v>276</v>
       </c>
       <c r="D118">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="E118" t="s">
         <v>407</v>
@@ -4902,7 +4902,7 @@
         <v>270</v>
       </c>
       <c r="D119">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E119" t="s">
         <v>408</v>
@@ -4928,7 +4928,7 @@
         <v>265</v>
       </c>
       <c r="D120">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="E120" t="s">
         <v>409</v>
@@ -4948,7 +4948,7 @@
         <v>266</v>
       </c>
       <c r="D121">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="E121" t="s">
         <v>410</v>
@@ -4968,7 +4968,7 @@
         <v>279</v>
       </c>
       <c r="D122">
-        <v>219</v>
+        <v>300</v>
       </c>
       <c r="E122" t="s">
         <v>411</v>
@@ -4988,7 +4988,7 @@
         <v>270</v>
       </c>
       <c r="D123">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E123" t="s">
         <v>282</v>
@@ -5008,7 +5008,7 @@
         <v>269</v>
       </c>
       <c r="D124">
-        <v>2455</v>
+        <v>3746</v>
       </c>
       <c r="E124" t="s">
         <v>412</v>
@@ -5034,7 +5034,7 @@
         <v>265</v>
       </c>
       <c r="D125">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E125" t="s">
         <v>413</v>
@@ -5054,7 +5054,7 @@
         <v>281</v>
       </c>
       <c r="D126">
-        <v>309</v>
+        <v>423</v>
       </c>
       <c r="E126" t="s">
         <v>414</v>
@@ -5080,7 +5080,7 @@
         <v>299</v>
       </c>
       <c r="D127">
-        <v>743</v>
+        <v>1261</v>
       </c>
       <c r="E127" t="s">
         <v>415</v>
@@ -5106,7 +5106,7 @@
         <v>276</v>
       </c>
       <c r="D128">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="E128" t="s">
         <v>416</v>
@@ -5132,7 +5132,7 @@
         <v>276</v>
       </c>
       <c r="D129">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="E129" t="s">
         <v>417</v>
@@ -5152,7 +5152,7 @@
         <v>298</v>
       </c>
       <c r="D130">
-        <v>608</v>
+        <v>849</v>
       </c>
       <c r="E130" t="s">
         <v>418</v>
@@ -5178,7 +5178,7 @@
         <v>276</v>
       </c>
       <c r="D131">
-        <v>150</v>
+        <v>254</v>
       </c>
       <c r="E131" t="s">
         <v>419</v>
@@ -5204,7 +5204,7 @@
         <v>268</v>
       </c>
       <c r="D132">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E132" t="s">
         <v>420</v>
@@ -5230,7 +5230,7 @@
         <v>270</v>
       </c>
       <c r="D133">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E133" t="s">
         <v>295</v>
@@ -5250,7 +5250,7 @@
         <v>277</v>
       </c>
       <c r="D134">
-        <v>235</v>
+        <v>355</v>
       </c>
       <c r="E134" t="s">
         <v>421</v>
@@ -5276,7 +5276,7 @@
         <v>262</v>
       </c>
       <c r="D135">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="E135" t="s">
         <v>355</v>
@@ -5296,7 +5296,7 @@
         <v>270</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E136" t="s">
         <v>422</v>
@@ -5316,7 +5316,7 @@
         <v>268</v>
       </c>
       <c r="D137">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E137" t="s">
         <v>423</v>
@@ -5336,7 +5336,7 @@
         <v>277</v>
       </c>
       <c r="D138">
-        <v>189</v>
+        <v>253</v>
       </c>
       <c r="E138" t="s">
         <v>424</v>
@@ -5362,7 +5362,7 @@
         <v>263</v>
       </c>
       <c r="D139">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
         <v>325</v>
@@ -5382,7 +5382,7 @@
         <v>278</v>
       </c>
       <c r="D140">
-        <v>286</v>
+        <v>448</v>
       </c>
       <c r="E140" t="s">
         <v>425</v>
@@ -5408,7 +5408,7 @@
         <v>281</v>
       </c>
       <c r="D141">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E141" t="s">
         <v>409</v>
@@ -5428,7 +5428,7 @@
         <v>276</v>
       </c>
       <c r="D142">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="E142" t="s">
         <v>426</v>
@@ -5454,7 +5454,7 @@
         <v>263</v>
       </c>
       <c r="D143">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E143" t="s">
         <v>427</v>
@@ -5474,7 +5474,7 @@
         <v>281</v>
       </c>
       <c r="D144">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="E144" t="s">
         <v>428</v>
@@ -5494,7 +5494,7 @@
         <v>278</v>
       </c>
       <c r="D145">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="E145" t="s">
         <v>429</v>
@@ -5514,7 +5514,7 @@
         <v>290</v>
       </c>
       <c r="D146">
-        <v>97</v>
+        <v>175</v>
       </c>
       <c r="E146" t="s">
         <v>430</v>
@@ -5534,7 +5534,7 @@
         <v>274</v>
       </c>
       <c r="D147">
-        <v>323</v>
+        <v>567</v>
       </c>
       <c r="E147" t="s">
         <v>431</v>
@@ -5560,7 +5560,7 @@
         <v>281</v>
       </c>
       <c r="D148">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="E148" t="s">
         <v>384</v>
@@ -5580,7 +5580,7 @@
         <v>270</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E149" t="s">
         <v>267</v>
@@ -5600,7 +5600,7 @@
         <v>266</v>
       </c>
       <c r="D150">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="E150" t="s">
         <v>432</v>
@@ -5620,7 +5620,7 @@
         <v>278</v>
       </c>
       <c r="D151">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="E151" t="s">
         <v>433</v>
@@ -5640,7 +5640,7 @@
         <v>265</v>
       </c>
       <c r="D152">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E152" t="s">
         <v>295</v>
@@ -5666,7 +5666,7 @@
         <v>300</v>
       </c>
       <c r="D153">
-        <v>3309</v>
+        <v>4163</v>
       </c>
       <c r="E153" t="s">
         <v>434</v>
@@ -5692,7 +5692,7 @@
         <v>281</v>
       </c>
       <c r="D154">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E154" t="s">
         <v>427</v>
@@ -5718,7 +5718,7 @@
         <v>267</v>
       </c>
       <c r="D155">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="E155" t="s">
         <v>435</v>
@@ -5738,7 +5738,7 @@
         <v>268</v>
       </c>
       <c r="D156">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E156" t="s">
         <v>436</v>
@@ -5758,7 +5758,7 @@
         <v>266</v>
       </c>
       <c r="D157">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="E157" t="s">
         <v>359</v>
@@ -5784,7 +5784,7 @@
         <v>263</v>
       </c>
       <c r="D158">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E158" t="s">
         <v>437</v>
@@ -5804,7 +5804,7 @@
         <v>267</v>
       </c>
       <c r="D159">
-        <v>263</v>
+        <v>391</v>
       </c>
       <c r="E159" t="s">
         <v>438</v>
@@ -5830,7 +5830,7 @@
         <v>267</v>
       </c>
       <c r="D160">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="E160" t="s">
         <v>439</v>
@@ -5856,7 +5856,7 @@
         <v>268</v>
       </c>
       <c r="D161">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E161" t="s">
         <v>440</v>
@@ -5876,7 +5876,7 @@
         <v>298</v>
       </c>
       <c r="D162">
-        <v>1754</v>
+        <v>2737</v>
       </c>
       <c r="E162" t="s">
         <v>441</v>
@@ -5902,7 +5902,7 @@
         <v>263</v>
       </c>
       <c r="D163">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E163" t="s">
         <v>396</v>
@@ -5922,7 +5922,7 @@
         <v>284</v>
       </c>
       <c r="D164">
-        <v>212</v>
+        <v>330</v>
       </c>
       <c r="E164" t="s">
         <v>442</v>
@@ -5948,7 +5948,7 @@
         <v>270</v>
       </c>
       <c r="D165">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E165" t="s">
         <v>325</v>
@@ -5968,7 +5968,7 @@
         <v>301</v>
       </c>
       <c r="D166">
-        <v>814</v>
+        <v>1330</v>
       </c>
       <c r="E166" t="s">
         <v>443</v>
@@ -5994,7 +5994,7 @@
         <v>276</v>
       </c>
       <c r="D167">
-        <v>126</v>
+        <v>227</v>
       </c>
       <c r="E167" t="s">
         <v>444</v>
@@ -6014,7 +6014,7 @@
         <v>268</v>
       </c>
       <c r="D168">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E168" t="s">
         <v>445</v>
@@ -6034,7 +6034,7 @@
         <v>265</v>
       </c>
       <c r="D169">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="E169" t="s">
         <v>446</v>
@@ -6054,7 +6054,7 @@
         <v>281</v>
       </c>
       <c r="D170">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="E170" t="s">
         <v>447</v>
@@ -6074,7 +6074,7 @@
         <v>297</v>
       </c>
       <c r="D171">
-        <v>2511</v>
+        <v>3942</v>
       </c>
       <c r="E171" t="s">
         <v>448</v>
@@ -6100,7 +6100,7 @@
         <v>266</v>
       </c>
       <c r="D172">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="E172" t="s">
         <v>449</v>
@@ -6126,7 +6126,7 @@
         <v>266</v>
       </c>
       <c r="D173">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="E173" t="s">
         <v>450</v>
@@ -6146,7 +6146,7 @@
         <v>270</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E174" t="s">
         <v>302</v>
@@ -6166,7 +6166,7 @@
         <v>290</v>
       </c>
       <c r="D175">
-        <v>408</v>
+        <v>560</v>
       </c>
       <c r="E175" t="s">
         <v>451</v>
@@ -6192,7 +6192,7 @@
         <v>266</v>
       </c>
       <c r="D176">
-        <v>324</v>
+        <v>475</v>
       </c>
       <c r="E176" t="s">
         <v>452</v>
@@ -6218,7 +6218,7 @@
         <v>276</v>
       </c>
       <c r="D177">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E177" t="s">
         <v>453</v>
@@ -6238,7 +6238,7 @@
         <v>267</v>
       </c>
       <c r="D178">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="E178" t="s">
         <v>454</v>
@@ -6264,7 +6264,7 @@
         <v>292</v>
       </c>
       <c r="D179">
-        <v>2461</v>
+        <v>3450</v>
       </c>
       <c r="E179" t="s">
         <v>455</v>
@@ -6290,7 +6290,7 @@
         <v>263</v>
       </c>
       <c r="D180">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E180" t="s">
         <v>456</v>
@@ -6310,7 +6310,7 @@
         <v>265</v>
       </c>
       <c r="D181">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E181" t="s">
         <v>317</v>
@@ -6336,7 +6336,7 @@
         <v>274</v>
       </c>
       <c r="D182">
-        <v>506</v>
+        <v>836</v>
       </c>
       <c r="E182" t="s">
         <v>457</v>
@@ -6362,7 +6362,7 @@
         <v>271</v>
       </c>
       <c r="D183">
-        <v>88</v>
+        <v>200</v>
       </c>
       <c r="E183" t="s">
         <v>458</v>
@@ -6388,7 +6388,7 @@
         <v>290</v>
       </c>
       <c r="D184">
-        <v>127</v>
+        <v>236</v>
       </c>
       <c r="E184" t="s">
         <v>459</v>
@@ -6408,7 +6408,7 @@
         <v>293</v>
       </c>
       <c r="D185">
-        <v>487</v>
+        <v>817</v>
       </c>
       <c r="E185" t="s">
         <v>460</v>
@@ -6434,7 +6434,7 @@
         <v>268</v>
       </c>
       <c r="D186">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="E186" t="s">
         <v>355</v>
@@ -6454,7 +6454,7 @@
         <v>278</v>
       </c>
       <c r="D187">
-        <v>138</v>
+        <v>230</v>
       </c>
       <c r="E187" t="s">
         <v>461</v>
@@ -6474,7 +6474,7 @@
         <v>262</v>
       </c>
       <c r="D188">
-        <v>242</v>
+        <v>420</v>
       </c>
       <c r="E188" t="s">
         <v>462</v>
@@ -6494,7 +6494,7 @@
         <v>302</v>
       </c>
       <c r="D189">
-        <v>1000</v>
+        <v>1447</v>
       </c>
       <c r="E189" t="s">
         <v>463</v>
@@ -6520,7 +6520,7 @@
         <v>263</v>
       </c>
       <c r="D190">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E190" t="s">
         <v>420</v>
@@ -6540,7 +6540,7 @@
         <v>281</v>
       </c>
       <c r="D191">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E191" t="s">
         <v>289</v>
@@ -6560,7 +6560,7 @@
         <v>284</v>
       </c>
       <c r="D192">
-        <v>538</v>
+        <v>820</v>
       </c>
       <c r="E192" t="s">
         <v>464</v>
@@ -6586,7 +6586,7 @@
         <v>270</v>
       </c>
       <c r="D193">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E193" t="s">
         <v>408</v>
@@ -6606,7 +6606,7 @@
         <v>265</v>
       </c>
       <c r="D194">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E194" t="s">
         <v>465</v>
@@ -6626,7 +6626,7 @@
         <v>281</v>
       </c>
       <c r="D195">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E195" t="s">
         <v>466</v>
@@ -6646,7 +6646,7 @@
         <v>284</v>
       </c>
       <c r="D196">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="E196" t="s">
         <v>467</v>
@@ -6672,7 +6672,7 @@
         <v>265</v>
       </c>
       <c r="D197">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="E197" t="s">
         <v>468</v>
@@ -6692,7 +6692,7 @@
         <v>263</v>
       </c>
       <c r="D198">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E198" t="s">
         <v>287</v>
@@ -6718,7 +6718,7 @@
         <v>279</v>
       </c>
       <c r="D199">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="E199" t="s">
         <v>469</v>
@@ -6744,7 +6744,7 @@
         <v>262</v>
       </c>
       <c r="D200">
-        <v>365</v>
+        <v>522</v>
       </c>
       <c r="E200" t="s">
         <v>470</v>
@@ -6770,7 +6770,7 @@
         <v>281</v>
       </c>
       <c r="D201">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E201" t="s">
         <v>317</v>
@@ -6790,7 +6790,7 @@
         <v>303</v>
       </c>
       <c r="D202">
-        <v>276</v>
+        <v>412</v>
       </c>
       <c r="E202" t="s">
         <v>471</v>
@@ -6816,7 +6816,7 @@
         <v>265</v>
       </c>
       <c r="D203">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E203" t="s">
         <v>393</v>
@@ -6836,7 +6836,7 @@
         <v>281</v>
       </c>
       <c r="D204">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="E204" t="s">
         <v>317</v>
@@ -6856,7 +6856,7 @@
         <v>284</v>
       </c>
       <c r="D205">
-        <v>150</v>
+        <v>239</v>
       </c>
       <c r="E205" t="s">
         <v>472</v>
@@ -6876,7 +6876,7 @@
         <v>271</v>
       </c>
       <c r="D206">
-        <v>321</v>
+        <v>545</v>
       </c>
       <c r="E206" t="s">
         <v>473</v>
@@ -6902,7 +6902,7 @@
         <v>263</v>
       </c>
       <c r="D207">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E207" t="s">
         <v>314</v>
@@ -6922,7 +6922,7 @@
         <v>270</v>
       </c>
       <c r="D208">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E208" t="s">
         <v>474</v>
@@ -6942,7 +6942,7 @@
         <v>263</v>
       </c>
       <c r="D209">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="E209" t="s">
         <v>475</v>
@@ -6968,7 +6968,7 @@
         <v>263</v>
       </c>
       <c r="D210">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E210" t="s">
         <v>292</v>
@@ -6988,7 +6988,7 @@
         <v>279</v>
       </c>
       <c r="D211">
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="E211" t="s">
         <v>476</v>
@@ -7008,7 +7008,7 @@
         <v>270</v>
       </c>
       <c r="D212">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E212" t="s">
         <v>381</v>
@@ -7028,7 +7028,7 @@
         <v>304</v>
       </c>
       <c r="D213">
-        <v>2025</v>
+        <v>2965</v>
       </c>
       <c r="E213" t="s">
         <v>477</v>
@@ -7054,7 +7054,7 @@
         <v>268</v>
       </c>
       <c r="D214">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E214" t="s">
         <v>436</v>
@@ -7074,7 +7074,7 @@
         <v>265</v>
       </c>
       <c r="D215">
-        <v>256</v>
+        <v>355</v>
       </c>
       <c r="E215" t="s">
         <v>478</v>
@@ -7100,7 +7100,7 @@
         <v>268</v>
       </c>
       <c r="D216">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E216" t="s">
         <v>479</v>
@@ -7120,7 +7120,7 @@
         <v>270</v>
       </c>
       <c r="D217">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E217" t="s">
         <v>303</v>
@@ -7146,7 +7146,7 @@
         <v>270</v>
       </c>
       <c r="D218">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E218" t="s">
         <v>284</v>
@@ -7166,7 +7166,7 @@
         <v>265</v>
       </c>
       <c r="D219">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="E219" t="s">
         <v>480</v>
@@ -7186,7 +7186,7 @@
         <v>263</v>
       </c>
       <c r="D220">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E220" t="s">
         <v>427</v>
@@ -7206,7 +7206,7 @@
         <v>305</v>
       </c>
       <c r="D221">
-        <v>13431</v>
+        <v>19391</v>
       </c>
       <c r="E221" t="s">
         <v>481</v>
@@ -7232,7 +7232,7 @@
         <v>306</v>
       </c>
       <c r="D222">
-        <v>1103</v>
+        <v>1869</v>
       </c>
       <c r="E222" t="s">
         <v>482</v>
@@ -7258,7 +7258,7 @@
         <v>263</v>
       </c>
       <c r="D223">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E223" t="s">
         <v>291</v>
@@ -7278,7 +7278,7 @@
         <v>263</v>
       </c>
       <c r="D224">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="E224" t="s">
         <v>483</v>
@@ -7298,7 +7298,7 @@
         <v>270</v>
       </c>
       <c r="D225">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E225" t="s">
         <v>299</v>
@@ -7318,7 +7318,7 @@
         <v>281</v>
       </c>
       <c r="D226">
-        <v>211</v>
+        <v>333</v>
       </c>
       <c r="E226" t="s">
         <v>484</v>
@@ -7344,7 +7344,7 @@
         <v>279</v>
       </c>
       <c r="D227">
-        <v>608</v>
+        <v>982</v>
       </c>
       <c r="E227" t="s">
         <v>485</v>
@@ -7370,7 +7370,7 @@
         <v>307</v>
       </c>
       <c r="D228">
-        <v>7749</v>
+        <v>12693</v>
       </c>
       <c r="E228" t="s">
         <v>486</v>
@@ -7396,7 +7396,7 @@
         <v>278</v>
       </c>
       <c r="D229">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="E229" t="s">
         <v>487</v>
@@ -7416,7 +7416,7 @@
         <v>281</v>
       </c>
       <c r="D230">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="E230" t="s">
         <v>488</v>
@@ -7436,7 +7436,7 @@
         <v>290</v>
       </c>
       <c r="D231">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="E231" t="s">
         <v>489</v>
@@ -7462,7 +7462,7 @@
         <v>268</v>
       </c>
       <c r="D232">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E232" t="s">
         <v>286</v>
@@ -7482,7 +7482,7 @@
         <v>268</v>
       </c>
       <c r="D233">
-        <v>162</v>
+        <v>227</v>
       </c>
       <c r="E233" t="s">
         <v>490</v>
@@ -7508,7 +7508,7 @@
         <v>265</v>
       </c>
       <c r="D234">
-        <v>241</v>
+        <v>332</v>
       </c>
       <c r="E234" t="s">
         <v>491</v>
@@ -7534,7 +7534,7 @@
         <v>308</v>
       </c>
       <c r="D235">
-        <v>315</v>
+        <v>539</v>
       </c>
       <c r="E235" t="s">
         <v>492</v>
@@ -7554,7 +7554,7 @@
         <v>290</v>
       </c>
       <c r="D236">
-        <v>433</v>
+        <v>716</v>
       </c>
       <c r="E236" t="s">
         <v>493</v>
@@ -7580,7 +7580,7 @@
         <v>301</v>
       </c>
       <c r="D237">
-        <v>390</v>
+        <v>615</v>
       </c>
       <c r="E237" t="s">
         <v>494</v>
@@ -7606,7 +7606,7 @@
         <v>279</v>
       </c>
       <c r="D238">
-        <v>283</v>
+        <v>390</v>
       </c>
       <c r="E238" t="s">
         <v>484</v>
@@ -7632,7 +7632,7 @@
         <v>278</v>
       </c>
       <c r="D239">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="E239" t="s">
         <v>495</v>
@@ -7652,7 +7652,7 @@
         <v>290</v>
       </c>
       <c r="D240">
-        <v>143</v>
+        <v>258</v>
       </c>
       <c r="E240" t="s">
         <v>496</v>
@@ -7678,7 +7678,7 @@
         <v>275</v>
       </c>
       <c r="D241">
-        <v>2353</v>
+        <v>3337</v>
       </c>
       <c r="E241" t="s">
         <v>497</v>
@@ -7704,7 +7704,7 @@
         <v>266</v>
       </c>
       <c r="D242">
-        <v>178</v>
+        <v>289</v>
       </c>
       <c r="E242" t="s">
         <v>498</v>
@@ -7730,7 +7730,7 @@
         <v>265</v>
       </c>
       <c r="D243">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E243" t="s">
         <v>297</v>
@@ -7750,7 +7750,7 @@
         <v>291</v>
       </c>
       <c r="D244">
-        <v>451</v>
+        <v>703</v>
       </c>
       <c r="E244" t="s">
         <v>499</v>
@@ -7776,7 +7776,7 @@
         <v>279</v>
       </c>
       <c r="D245">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="E245" t="s">
         <v>500</v>
@@ -7802,7 +7802,7 @@
         <v>277</v>
       </c>
       <c r="D246">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="E246" t="s">
         <v>501</v>
@@ -7828,7 +7828,7 @@
         <v>300</v>
       </c>
       <c r="D247">
-        <v>1616</v>
+        <v>2767</v>
       </c>
       <c r="E247" t="s">
         <v>502</v>
@@ -7854,7 +7854,7 @@
         <v>279</v>
       </c>
       <c r="D248">
-        <v>178</v>
+        <v>270</v>
       </c>
       <c r="E248" t="s">
         <v>503</v>
@@ -7880,7 +7880,7 @@
         <v>268</v>
       </c>
       <c r="D249">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E249" t="s">
         <v>504</v>
@@ -7900,7 +7900,7 @@
         <v>303</v>
       </c>
       <c r="D250">
-        <v>214</v>
+        <v>387</v>
       </c>
       <c r="E250" t="s">
         <v>505</v>
@@ -7926,7 +7926,7 @@
         <v>279</v>
       </c>
       <c r="D251">
-        <v>162</v>
+        <v>231</v>
       </c>
       <c r="E251" t="s">
         <v>506</v>
@@ -7946,7 +7946,7 @@
         <v>265</v>
       </c>
       <c r="D252">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E252" t="s">
         <v>507</v>
@@ -7966,7 +7966,7 @@
         <v>281</v>
       </c>
       <c r="D253">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="E253" t="s">
         <v>508</v>
@@ -7986,7 +7986,7 @@
         <v>268</v>
       </c>
       <c r="D254">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="E254" t="s">
         <v>509</v>
@@ -8012,7 +8012,7 @@
         <v>266</v>
       </c>
       <c r="D255">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E255" t="s">
         <v>510</v>
